--- a/default/3_sut_multi_year_rcot_cap/input_data/input_data.xlsx
+++ b/default/3_sut_multi_year_rcot_cap/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\pyesm\default\3_sut_multi_year_rcot_cap\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BC3668-BA69-4093-A8E3-FD8E3D502A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575CE7A7-26B2-47B3-B17B-2EFE3D5246B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d" sheetId="1" r:id="rId1"/>
@@ -115,6 +115,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,16 +466,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -508,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -525,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -542,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -559,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -576,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -593,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -610,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -627,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -653,13 +654,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -687,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -701,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -728,9 +729,9 @@
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -758,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -772,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -795,13 +796,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -829,7 +830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -843,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -870,9 +871,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -906,7 +907,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -923,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -940,7 +941,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -957,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -974,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1004,13 +1005,13 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>508022.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>518182.64399999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>528546.29688000004</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>539117.22281760001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1240,15 +1241,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1287,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1314,12 +1315,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1358,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1385,15 +1386,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1462,12 +1463,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1536,9 +1537,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="21.3828125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1604,12 +1608,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1662,7 +1666,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/default/3_sut_multi_year_rcot_cap/input_data/input_data.xlsx
+++ b/default/3_sut_multi_year_rcot_cap/input_data/input_data.xlsx
@@ -5,33 +5,44 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\pyesm\default\3_sut_multi_year_rcot_cap\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\default\4_sut_multi_year_rcot_cap_new\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575CE7A7-26B2-47B3-B17B-2EFE3D5246B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F85851C-0AD1-4909-AB86-C6C8D4691BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d" sheetId="1" r:id="rId1"/>
     <sheet name="u" sheetId="2" r:id="rId2"/>
-    <sheet name="Y" sheetId="3" r:id="rId3"/>
-    <sheet name="c_i" sheetId="4" r:id="rId4"/>
-    <sheet name="c_o" sheetId="5" r:id="rId5"/>
-    <sheet name="c_start" sheetId="6" r:id="rId6"/>
-    <sheet name="lt_res" sheetId="7" r:id="rId7"/>
-    <sheet name="lf_min" sheetId="8" r:id="rId8"/>
-    <sheet name="lf_max" sheetId="9" r:id="rId9"/>
-    <sheet name="lifetime" sheetId="10" r:id="rId10"/>
-    <sheet name="weib_shape" sheetId="11" r:id="rId11"/>
-    <sheet name="e" sheetId="12" r:id="rId12"/>
+    <sheet name="c" sheetId="3" r:id="rId3"/>
+    <sheet name="Y" sheetId="4" r:id="rId4"/>
+    <sheet name="c_start" sheetId="5" r:id="rId5"/>
+    <sheet name="e" sheetId="6" r:id="rId6"/>
+    <sheet name="lf_range" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Y!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -69,12 +80,21 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>fa_Name</t>
+    <t>f_agg_Name</t>
   </si>
   <si>
     <t>Electricity</t>
   </si>
   <si>
+    <t>c_Name</t>
+  </si>
+  <si>
+    <t>Capital costs</t>
+  </si>
+  <si>
+    <t>Operational costs</t>
+  </si>
+  <si>
     <t>y_Name</t>
   </si>
   <si>
@@ -84,7 +104,7 @@
     <t>y1</t>
   </si>
   <si>
-    <t>Final demand</t>
+    <t>households</t>
   </si>
   <si>
     <t>y2</t>
@@ -97,6 +117,21 @@
   </si>
   <si>
     <t>y5</t>
+  </si>
+  <si>
+    <t>e_Name</t>
+  </si>
+  <si>
+    <t>CO2 emissions</t>
+  </si>
+  <si>
+    <t>lf_Name</t>
+  </si>
+  <si>
+    <t>lf max</t>
+  </si>
+  <si>
+    <t>lf min</t>
   </si>
 </sst>
 </file>
@@ -115,7 +150,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,11 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,19 +498,12 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="2.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.61328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.07421875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -509,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -526,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -543,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -560,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -577,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -594,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -611,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -628,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -643,219 +671,6 @@
       </c>
       <c r="E10">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -868,12 +683,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,16 +696,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -898,16 +713,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -915,16 +730,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -932,16 +747,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -949,44 +764,44 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -999,19 +814,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.23046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,36 +836,30 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1059,19 +867,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1079,19 +884,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1099,19 +901,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1119,19 +918,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1142,93 +938,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>508022.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <v>518182.64399999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>528546.29688000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <v>539117.22281760001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>549899.56727395195</v>
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1238,18 +951,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,55 +970,224 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>508022.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>518182.64399999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>528546.29688000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>539117.22281760001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>549899.56727395195</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1315,12 +1197,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1345,10 +1227,10 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1362,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1373,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1383,18 +1265,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="21.61328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,10 +1284,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1418,11 +1300,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1432,11 +1317,14 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1446,8 +1334,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1457,18 +1348,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="21.61328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,13 +1364,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1490,13 +1381,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1504,13 +1398,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1518,155 +1415,64 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="21.3828125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
